--- a/backend/core/management/data/electionCandidateSample.xlsx
+++ b/backend/core/management/data/electionCandidateSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\q8tasweet2\work\outputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\q8tasweet2\backend\core\management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A99D66-1B62-4830-ABB8-7E388E3DB565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C9347-D00C-4384-8C96-48313D6EC7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>مطيع</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -611,6 +614,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -657,6 +661,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -684,20 +702,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -712,12 +716,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E7D5B4E-77A2-4E7D-9BE4-9E0F54D8BBE3}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:H51" xr:uid="{6E7D5B4E-77A2-4E7D-9BE4-9E0F54D8BBE3}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E7D5B4E-77A2-4E7D-9BE4-9E0F54D8BBE3}" name="Table1" displayName="Table1" ref="A1:I51" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:I51" xr:uid="{6E7D5B4E-77A2-4E7D-9BE4-9E0F54D8BBE3}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4C1EFA73-99D7-422F-B3A9-F808CFE52612}" name="id"/>
     <tableColumn id="2" xr3:uid="{815DA651-537D-4879-9793-B60A05EBD843}" name="position"/>
     <tableColumn id="3" xr3:uid="{571B3688-57A3-4E98-8ECF-9C9C12C69F03}" name="name"/>
+    <tableColumn id="9" xr3:uid="{8272AE72-0B16-413F-B56A-D54EDF331261}" name="gender"/>
     <tableColumn id="4" xr3:uid="{5A89ADA3-2AB6-4131-A1AC-82190C36EEB9}" name="result"/>
     <tableColumn id="5" xr3:uid="{A765F789-2E73-456A-ADC7-1D0851B80B34}" name="votes"/>
     <tableColumn id="6" xr3:uid="{3DADE154-0146-434F-860F-398289A5C1EF}" name="family"/>
@@ -1013,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,14 +1029,15 @@
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,22 +1048,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1067,20 +1076,23 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16469</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1090,23 +1102,26 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14211</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1116,17 +1131,20 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11055</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1136,23 +1154,26 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10643</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1162,23 +1183,26 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9104</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1188,23 +1212,26 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8807</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1214,20 +1241,23 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>8521</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1237,20 +1267,23 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8437</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1260,17 +1293,20 @@
       <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7644</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1280,17 +1316,20 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7343</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1300,23 +1339,26 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
         <v>6953</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1326,23 +1368,26 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
         <v>6360</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1352,20 +1397,23 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14">
         <v>5505</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1375,20 +1423,23 @@
       <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
         <v>5504</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1398,20 +1449,23 @@
       <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
         <v>5080</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>73</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1421,23 +1475,26 @@
       <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
         <v>4547</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>77</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1447,17 +1504,20 @@
       <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18">
         <v>4456</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1467,23 +1527,26 @@
       <c r="C19" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19">
         <v>2720</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1493,20 +1556,23 @@
       <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20">
         <v>2634</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -1516,17 +1582,20 @@
       <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21">
         <v>2478</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1536,17 +1605,20 @@
       <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22">
         <v>2206</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -1556,17 +1628,20 @@
       <c r="C23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23">
         <v>2080</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1576,20 +1651,23 @@
       <c r="C24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24">
         <v>1720</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>53</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -1599,17 +1677,20 @@
       <c r="C25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25">
         <v>1609</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -1619,17 +1700,20 @@
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26">
         <v>1375</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -1639,17 +1723,20 @@
       <c r="C27" t="s">
         <v>110</v>
       </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27">
         <v>1289</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1659,17 +1746,20 @@
       <c r="C28" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28">
         <v>1101</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1679,17 +1769,20 @@
       <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29">
         <v>1087</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1699,20 +1792,23 @@
       <c r="C30" t="s">
         <v>119</v>
       </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30">
         <v>936</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>120</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -1722,17 +1818,20 @@
       <c r="C31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31">
         <v>565</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -1742,17 +1841,20 @@
       <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32">
         <v>296</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -1762,17 +1864,20 @@
       <c r="C33" t="s">
         <v>130</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33">
         <v>179</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -1782,17 +1887,20 @@
       <c r="C34" t="s">
         <v>134</v>
       </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34">
         <v>165</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -1802,17 +1910,20 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35">
         <v>46</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -1822,17 +1933,20 @@
       <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36">
         <v>39</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -1842,20 +1956,23 @@
       <c r="C37" t="s">
         <v>146</v>
       </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37">
         <v>33</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>53</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -1865,17 +1982,20 @@
       <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -1885,17 +2005,20 @@
       <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39">
         <v>25</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -1905,17 +2028,20 @@
       <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40">
         <v>22</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -1925,165 +2051,198 @@
       <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41">
         <v>20</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>164</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>165</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>166</v>
       </c>
       <c r="C43" t="s">
         <v>167</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>165</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
       <c r="C44" t="s">
         <v>169</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>165</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
       <c r="C45" t="s">
         <v>172</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>165</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>173</v>
       </c>
       <c r="C46" t="s">
         <v>174</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>165</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
       <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>165</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>178</v>
       </c>
       <c r="C48" t="s">
         <v>179</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>180</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
       <c r="C49" t="s">
         <v>183</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>180</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>185</v>
       </c>
       <c r="C50" t="s">
         <v>186</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>180</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>187</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>17</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>189</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>180</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>190</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>17</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>13</v>
       </c>
     </row>
